--- a/GestorReceitas/Março/transferenciasTratado.xlsx
+++ b/GestorReceitas/Março/transferenciasTratado.xlsx
@@ -545,8 +545,16 @@
       <c r="C5" t="n">
         <v>22.5</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro da Torre Madrid, Manuel Alejandro da Torre Madrid</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>298794284, 298794098</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -583,8 +591,16 @@
       <c r="C7" t="n">
         <v>125</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Martim de Carvalho Santos Silva</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>298986752</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -598,8 +614,16 @@
       <c r="C8" t="n">
         <v>60</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Simão Maia Aroso</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -682,8 +706,16 @@
       <c r="C12" t="n">
         <v>126.5</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Santiago Filipe da Silva</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>302027238</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -743,8 +775,16 @@
       <c r="C15" t="n">
         <v>6</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Martim Vieira Gomes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>300211163</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -758,8 +798,16 @@
       <c r="C16" t="n">
         <v>7.5</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Martim Vieira Gomes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>300211163</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -872,7 +920,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>306151197, 306150352</t>
+          <t>306150352, 306151197</t>
         </is>
       </c>
     </row>
@@ -1065,10 +1113,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>matilde marques , matilde marques</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Matilde Loureiro Marques, matilde marques , matilde marques</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>291965016</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1235,8 +1287,16 @@
       <c r="C39" t="n">
         <v>57</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Martim Segura Ribeiro</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>305302639</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1319,8 +1379,16 @@
       <c r="C43" t="n">
         <v>12</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Martim Vieira Gomes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>300211163</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1334,8 +1402,16 @@
       <c r="C44" t="n">
         <v>35</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Martim Vieira Gomes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>300211163</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1349,8 +1425,16 @@
       <c r="C45" t="n">
         <v>84</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Valentina Agustina Ramirez Pelayes, Lucilia Luciana Ramirez Pelayes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>325260486, 325261180</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1371,7 +1455,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>304326852, 303197951</t>
+          <t>303197951, 304326852</t>
         </is>
       </c>
     </row>
@@ -1525,8 +1609,16 @@
       <c r="C53" t="n">
         <v>87</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tomás Monteiro Cunha, Mateus Monteiro Cunha</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>285360124, 303728795</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1639,7 +1731,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>298838222, 298838125</t>
+          <t>298838125, 298838222</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1846,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>305801384, 288353005</t>
+          <t>288353005, 305801384</t>
         </is>
       </c>
     </row>
@@ -1908,8 +2000,16 @@
       <c r="C70" t="n">
         <v>15</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Pedro Simão Freitas da Silva</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>292689675</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -1923,8 +2023,16 @@
       <c r="C71" t="n">
         <v>30.5</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Pedro Simão Freitas da Silva</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>292689675</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -1938,8 +2046,16 @@
       <c r="C72" t="n">
         <v>30</v>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Pedro Simão Freitas da Silva</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>292689675</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2144,7 +2260,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>305801384, 288353005</t>
+          <t>288353005, 305801384</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2467,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>303976047, 285654349</t>
+          <t>285654349, 303976047</t>
         </is>
       </c>
     </row>
@@ -2451,8 +2567,16 @@
       <c r="C95" t="n">
         <v>95</v>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Martim de Carvalho Santos Silva</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>298986752</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -2728,10 +2852,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>matilde marques , matilde marques</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>Matilde Loureiro Marques, matilde marques , matilde marques</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>291965016</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -2791,8 +2919,16 @@
       <c r="C111" t="n">
         <v>15</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Martim de Carvalho Santos Silva</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>298986752</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -3005,8 +3141,16 @@
       <c r="C121" t="n">
         <v>35</v>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Leonor Margarida Moreira Faria</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>292614292</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">

--- a/GestorReceitas/Março/transferenciasTratado.xlsx
+++ b/GestorReceitas/Março/transferenciasTratado.xlsx
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>294138170, 284925683</t>
+          <t>284925683, 294138170</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>288353005, 305801384</t>
+          <t>305801384, 288353005</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>288353005, 305801384</t>
+          <t>305801384, 288353005</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>294138170, 284925683</t>
+          <t>284925683, 294138170</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>285654349, 303976047</t>
+          <t>303976047, 285654349</t>
         </is>
       </c>
     </row>
@@ -2835,8 +2835,16 @@
       <c r="C107" t="n">
         <v>23</v>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Carolina Filipa Jesus Costa</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>306436043</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
